--- a/CoordinateConverter/ff.xlsx
+++ b/CoordinateConverter/ff.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\CoordinateConverter\CoordinateConverterGUI\CoordinateConverter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лаврушов\Documents\GitHub\CoordinateConverter\CoordinateConverter\ConverterSetup\CoordinateConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="A2 A3:A100"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection sqref="A1:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,534 +1052,6 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>-2693</v>
-      </c>
-      <c r="C57">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>-2752.1</v>
-      </c>
-      <c r="C58">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>-2811.2</v>
-      </c>
-      <c r="C59">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>-2870.3</v>
-      </c>
-      <c r="C60">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>-2929.4</v>
-      </c>
-      <c r="C61">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>-2988.5</v>
-      </c>
-      <c r="C62">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>-3047.6</v>
-      </c>
-      <c r="C63">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>-3106.7</v>
-      </c>
-      <c r="C64">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>-3165.8</v>
-      </c>
-      <c r="C65">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>-3224.9</v>
-      </c>
-      <c r="C66">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f t="shared" ref="A67:A100" si="1">A66+1</f>
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>-3284</v>
-      </c>
-      <c r="C67">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>-3343.1</v>
-      </c>
-      <c r="C68">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>-3402.2</v>
-      </c>
-      <c r="C69">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>-3461.3</v>
-      </c>
-      <c r="C70">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>-3520.4</v>
-      </c>
-      <c r="C71">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B72">
-        <v>-3579.5</v>
-      </c>
-      <c r="C72">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>-3638.6</v>
-      </c>
-      <c r="C73">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>-3697.7</v>
-      </c>
-      <c r="C74">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>-3756.8</v>
-      </c>
-      <c r="C75">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>-3815.9</v>
-      </c>
-      <c r="C76">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <v>-3875</v>
-      </c>
-      <c r="C77">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>-3934.1</v>
-      </c>
-      <c r="C78">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B79">
-        <v>-3993.2</v>
-      </c>
-      <c r="C79">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>-4052.3</v>
-      </c>
-      <c r="C80">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B81">
-        <v>-4111.3999999999996</v>
-      </c>
-      <c r="C81">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <v>-4170.5</v>
-      </c>
-      <c r="C82">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B83">
-        <v>-4229.6000000000004</v>
-      </c>
-      <c r="C83">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>-4288.7</v>
-      </c>
-      <c r="C84">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <v>-4347.8</v>
-      </c>
-      <c r="C85">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <v>-4406.8999999999996</v>
-      </c>
-      <c r="C86">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <v>-4466</v>
-      </c>
-      <c r="C87">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>-4525.1000000000004</v>
-      </c>
-      <c r="C88">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <v>-4584.2</v>
-      </c>
-      <c r="C89">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>-4643.3</v>
-      </c>
-      <c r="C90">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>-4702.3999999999996</v>
-      </c>
-      <c r="C91">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>-4761.5</v>
-      </c>
-      <c r="C92">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <v>-4820.6000000000004</v>
-      </c>
-      <c r="C93">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <v>-4879.7</v>
-      </c>
-      <c r="C94">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <v>-4938.8</v>
-      </c>
-      <c r="C95">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <v>-4997.8999999999996</v>
-      </c>
-      <c r="C96">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B97">
-        <v>-5057</v>
-      </c>
-      <c r="C97">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="B98">
-        <v>-5116.1000000000004</v>
-      </c>
-      <c r="C98">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B99">
-        <v>-5175.2</v>
-      </c>
-      <c r="C99">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B100">
-        <v>-5234.3</v>
-      </c>
-      <c r="C100">
-        <v>102</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
